--- a/doc/页面列表-易回课-v2.xlsx
+++ b/doc/页面列表-易回课-v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="56060" yWindow="-9400" windowWidth="30140" windowHeight="26180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2820,8 +2820,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2848,12 +2860,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3130,15 +3154,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.5" customWidth="1"/>
     <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3159,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3">
         <v>2</v>
@@ -3228,7 +3253,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -3254,7 +3279,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3">
         <v>2</v>
@@ -3267,7 +3292,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3">
         <v>3</v>
@@ -3280,7 +3305,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3">
         <v>1</v>
@@ -3293,7 +3318,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3">
         <v>1</v>
@@ -3319,7 +3344,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -3334,7 +3359,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3">
         <v>2</v>
@@ -3360,7 +3385,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="3">
         <v>2</v>
@@ -3390,7 +3415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3">
         <v>2</v>
@@ -3405,7 +3430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3">
         <v>3</v>
